--- a/data/trans_orig/P14B31-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B31-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E004E68-9421-4982-8D87-909357B822AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3F2EF07-D9D2-4B1B-9E22-8EA2CBED954B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B8F45906-3388-481C-A81E-59ADD6FB7F02}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7AA8F901-2193-419F-8B1C-4F8B3980EE3F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -75,28 +75,28 @@
     <t>44,7%</t>
   </si>
   <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
   </si>
   <si>
     <t>63,54%</t>
   </si>
   <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
   </si>
   <si>
     <t>55,29%</t>
   </si>
   <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>55,3%</t>
   </si>
   <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
   </si>
   <si>
     <t>36,46%</t>
   </si>
   <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
   </si>
   <si>
     <t>44,71%</t>
   </si>
   <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>76,93%</t>
   </si>
   <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
   </si>
   <si>
     <t>64,92%</t>
   </si>
   <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
   </si>
   <si>
     <t>70,28%</t>
   </si>
   <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
   </si>
   <si>
     <t>23,07%</t>
   </si>
   <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
   </si>
   <si>
     <t>35,08%</t>
   </si>
   <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
   </si>
   <si>
     <t>29,72%</t>
   </si>
   <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -210,7 +210,7 @@
     <t>30,7%</t>
   </si>
   <si>
-    <t>87,76%</t>
+    <t>87,56%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -222,61 +222,61 @@
     <t>69,3%</t>
   </si>
   <si>
-    <t>12,24%</t>
+    <t>12,44%</t>
   </si>
   <si>
     <t>53,91%</t>
   </si>
   <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
   </si>
   <si>
     <t>62,72%</t>
   </si>
   <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
   </si>
   <si>
     <t>58,9%</t>
   </si>
   <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
   </si>
   <si>
     <t>46,09%</t>
   </si>
   <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
   </si>
   <si>
     <t>37,28%</t>
   </si>
   <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
   </si>
   <si>
     <t>41,1%</t>
   </si>
   <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -297,19 +297,19 @@
     <t>63,14%</t>
   </si>
   <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
   </si>
   <si>
     <t>58,79%</t>
   </si>
   <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
   </si>
   <si>
     <t>54,42%</t>
@@ -324,79 +324,79 @@
     <t>36,86%</t>
   </si>
   <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
   </si>
   <si>
     <t>41,21%</t>
   </si>
   <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
   </si>
   <si>
     <t>29,28%</t>
   </si>
   <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
   </si>
   <si>
     <t>40,38%</t>
   </si>
   <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
   </si>
   <si>
     <t>33,96%</t>
   </si>
   <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
   </si>
   <si>
     <t>70,72%</t>
   </si>
   <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
   </si>
   <si>
     <t>59,62%</t>
   </si>
   <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
   </si>
   <si>
     <t>66,04%</t>
   </si>
   <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
   </si>
   <si>
     <t>27,78%</t>
   </si>
   <si>
-    <t>70,69%</t>
+    <t>71,3%</t>
   </si>
   <si>
     <t>46,36%</t>
@@ -405,16 +405,16 @@
     <t>31,72%</t>
   </si>
   <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
   </si>
   <si>
     <t>72,22%</t>
   </si>
   <si>
-    <t>29,31%</t>
+    <t>28,7%</t>
   </si>
   <si>
     <t>53,64%</t>
@@ -423,64 +423,64 @@
     <t>68,28%</t>
   </si>
   <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
   </si>
   <si>
     <t>33,26%</t>
   </si>
   <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
   </si>
   <si>
     <t>55,01%</t>
   </si>
   <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
   </si>
   <si>
     <t>45,35%</t>
   </si>
   <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
   </si>
   <si>
     <t>66,74%</t>
   </si>
   <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
   </si>
   <si>
     <t>44,99%</t>
   </si>
   <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
   </si>
   <si>
     <t>54,65%</t>
   </si>
   <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
   </si>
 </sst>
 </file>
@@ -892,7 +892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE07B4D-6031-4C08-BF0B-1BBEFF041734}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB391B31-49B4-41CA-92F6-3C95CB1F60F9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1643,7 +1643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66033667-E7A5-4EF0-9B5E-9A43330FE853}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BC1100-F8B2-4104-8AD0-9676E8AEB971}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14B31-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B31-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3F2EF07-D9D2-4B1B-9E22-8EA2CBED954B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9E11FEB-7C11-42F6-AF09-B23DEBA229DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7AA8F901-2193-419F-8B1C-4F8B3980EE3F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{42F5C088-25D5-45CE-B4A2-FA65545E7C2C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="146">
   <si>
     <t>Población cuya enfermedad de riñón le limita en 2012 (Tasa respuesta: 1,34%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>44,7%</t>
   </si>
   <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
   </si>
   <si>
     <t>63,54%</t>
   </si>
   <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
   </si>
   <si>
     <t>55,29%</t>
   </si>
   <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>55,3%</t>
   </si>
   <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
   </si>
   <si>
     <t>36,46%</t>
   </si>
   <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
   </si>
   <si>
     <t>44,71%</t>
   </si>
   <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>76,93%</t>
   </si>
   <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
   </si>
   <si>
     <t>64,92%</t>
   </si>
   <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
   </si>
   <si>
     <t>70,28%</t>
   </si>
   <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
   </si>
   <si>
     <t>23,07%</t>
   </si>
   <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
   </si>
   <si>
     <t>35,08%</t>
   </si>
   <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
   </si>
   <si>
     <t>29,72%</t>
   </si>
   <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -210,7 +210,7 @@
     <t>30,7%</t>
   </si>
   <si>
-    <t>87,56%</t>
+    <t>87,95%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -222,181 +222,175 @@
     <t>69,3%</t>
   </si>
   <si>
-    <t>12,44%</t>
+    <t>12,05%</t>
   </si>
   <si>
     <t>53,91%</t>
   </si>
   <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
   </si>
   <si>
     <t>62,72%</t>
   </si>
   <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
   </si>
   <si>
     <t>58,9%</t>
   </si>
   <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
   </si>
   <si>
     <t>46,09%</t>
   </si>
   <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
   </si>
   <si>
     <t>37,28%</t>
   </si>
   <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
   </si>
   <si>
     <t>41,1%</t>
   </si>
   <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya enfermedad de riñón le limita en 2015 (Tasa respuesta: 1,46%)</t>
+    <t>Población cuya enfermedad de riñón le limita en 2016 (Tasa respuesta: 1,46%)</t>
   </si>
   <si>
     <t>45,58%</t>
   </si>
   <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
   </si>
   <si>
     <t>63,14%</t>
   </si>
   <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
   </si>
   <si>
     <t>58,79%</t>
   </si>
   <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
+    <t>72,99%</t>
   </si>
   <si>
     <t>54,42%</t>
   </si>
   <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
   </si>
   <si>
     <t>36,86%</t>
   </si>
   <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
   </si>
   <si>
     <t>41,21%</t>
   </si>
   <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
+    <t>27,01%</t>
   </si>
   <si>
     <t>29,28%</t>
   </si>
   <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
   </si>
   <si>
     <t>40,38%</t>
   </si>
   <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
   </si>
   <si>
     <t>33,96%</t>
   </si>
   <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
   </si>
   <si>
     <t>70,72%</t>
   </si>
   <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
   </si>
   <si>
     <t>59,62%</t>
   </si>
   <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
   </si>
   <si>
     <t>66,04%</t>
   </si>
   <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
   </si>
   <si>
     <t>27,78%</t>
   </si>
   <si>
-    <t>71,3%</t>
+    <t>68,84%</t>
   </si>
   <si>
     <t>46,36%</t>
@@ -405,16 +399,16 @@
     <t>31,72%</t>
   </si>
   <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
   </si>
   <si>
     <t>72,22%</t>
   </si>
   <si>
-    <t>28,7%</t>
+    <t>31,16%</t>
   </si>
   <si>
     <t>53,64%</t>
@@ -423,64 +417,64 @@
     <t>68,28%</t>
   </si>
   <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
   </si>
   <si>
     <t>33,26%</t>
   </si>
   <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
   </si>
   <si>
     <t>55,01%</t>
   </si>
   <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
   </si>
   <si>
     <t>45,35%</t>
   </si>
   <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
   </si>
   <si>
     <t>66,74%</t>
   </si>
   <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
   </si>
   <si>
     <t>44,99%</t>
   </si>
   <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
   </si>
   <si>
     <t>54,65%</t>
   </si>
   <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
   </si>
 </sst>
 </file>
@@ -892,7 +886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB391B31-49B4-41CA-92F6-3C95CB1F60F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18200D8-F401-491F-9B39-16579C99E857}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1643,7 +1637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BC1100-F8B2-4104-8AD0-9676E8AEB971}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815CE8B7-A29F-43C6-8DC5-46FACC6A177B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1800,10 +1794,10 @@
         <v>88</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1818,13 +1812,13 @@
         <v>6443</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -1833,13 +1827,13 @@
         <v>13262</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -1848,13 +1842,13 @@
         <v>19706</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,13 +1916,13 @@
         <v>7507</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -1937,13 +1931,13 @@
         <v>7551</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -1952,13 +1946,13 @@
         <v>15059</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1973,13 +1967,13 @@
         <v>18130</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -1988,13 +1982,13 @@
         <v>11149</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M8" s="7">
         <v>28</v>
@@ -2003,13 +1997,13 @@
         <v>29278</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2077,13 +2071,13 @@
         <v>2221</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2092,7 +2086,7 @@
         <v>996</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>51</v>
@@ -2107,13 +2101,13 @@
         <v>3217</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2128,10 +2122,10 @@
         <v>5773</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>55</v>
@@ -2143,7 +2137,7 @@
         <v>1153</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>51</v>
@@ -2158,13 +2152,13 @@
         <v>6925</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2232,13 +2226,13 @@
         <v>15126</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -2247,13 +2241,13 @@
         <v>31262</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -2262,13 +2256,13 @@
         <v>46388</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2283,13 +2277,13 @@
         <v>30346</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -2298,13 +2292,13 @@
         <v>25564</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M14" s="7">
         <v>53</v>
@@ -2313,13 +2307,13 @@
         <v>55910</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
